--- a/out.xlsx
+++ b/out.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\proyectos de React\mnr\mnr_votantes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\proyectos de React\mnr\tema_editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93948F5-AC97-4DE2-A02C-3916D1AD54F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F431876-EE7C-4D14-BC6D-19F526A73389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10110" yWindow="540" windowWidth="16035" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="0"/>
+    <workbookView xWindow="4560" yWindow="420" windowWidth="22650" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,13 +100,28 @@
     <t>COD-6</t>
   </si>
   <si>
-    <t xml:space="preserve">Encontrado Nombre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encontrado Apellido Paterno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encontrado Apellido Materno</t>
+    <t>Encontrado Nombre</t>
+  </si>
+  <si>
+    <t>Encontrado Apellido Paterno</t>
+  </si>
+  <si>
+    <t>Encontrado Apellido Materno</t>
+  </si>
+  <si>
+    <t>Juan Pérez NUEVO</t>
+  </si>
+  <si>
+    <t>Desarrollador Web NUEVO</t>
+  </si>
+  <si>
+    <t>555-1234456</t>
+  </si>
+  <si>
+    <t>COD-7</t>
+  </si>
+  <si>
+    <t>COD-8</t>
   </si>
 </sst>
 </file>
@@ -193,8 +208,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:I7" totalsRowShown="0">
-  <autoFilter ref="A1:I7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:I9" totalsRowShown="0">
+  <autoFilter ref="A1:I9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codigo"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nombre"/>
@@ -500,13 +515,16 @@
   </sheetPr>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -688,7 +706,35 @@
       <c r="E7" s="4">
         <v>54545</v>
       </c>
-      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
